--- a/files/2-курс-бакалавриат-ОФО-48.xlsx
+++ b/files/2-курс-бакалавриат-ОФО-48.xlsx
@@ -15,8 +15,70 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ИУПСиБК 2 курс" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$A$1:$L$56</definedName>
+    <definedName name="Z_4D72E795_06E1_4F2F_AE67_8CB53D497A64_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$B$1:$L$60</definedName>
+    <definedName name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$A$1:$L$56</definedName>
+    <definedName name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$B$1:$L$60</definedName>
+    <definedName name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$A$1:$L$56</definedName>
+    <definedName name="Z_8E80F33F_4DEB_4D53_BDE3_19A86710D048_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$A$1:$L$56</definedName>
+    <definedName name="Z_942635EC_2318_4735_B8F6_FD021A5522DA_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$A$1:$L$56</definedName>
+    <definedName name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$A$1:$L$56</definedName>
+    <definedName name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$A$1:$L$64</definedName>
+    <definedName name="Z_D77B7616_E978_4A64_87CF_8F3884212AC9_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$A$1:$L$56</definedName>
+    <definedName name="Z_D948D77A_2149_4647_A897_E8978AA23AEB_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 2 курс'!$A$1:$L$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ИГУиП 2 курс'!$B$1:$L$60</definedName>
+    <definedName name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 2 курс'!$A$1:$Q$61</definedName>
+    <definedName name="Z_4D72E795_06E1_4F2F_AE67_8CB53D497A64_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 2 курс'!$B$1:$Q$60</definedName>
+    <definedName name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 2 курс'!$A$1:$Q$56</definedName>
+    <definedName name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 2 курс'!$A$1:$Q$61</definedName>
+    <definedName name="Z_8E80F33F_4DEB_4D53_BDE3_19A86710D048_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 2 курс'!$A$1:$Q$56</definedName>
+    <definedName name="Z_942635EC_2318_4735_B8F6_FD021A5522DA_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 2 курс'!$A$1:$Q$56</definedName>
+    <definedName name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 2 курс'!$A$1:$Q$56</definedName>
+    <definedName name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 2 курс'!$A$1:$Q$60</definedName>
+    <definedName name="Z_D77B7616_E978_4A64_87CF_8F3884212AC9_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 2 курс'!$A$1:$Q$56</definedName>
+    <definedName name="Z_D948D77A_2149_4647_A897_E8978AA23AEB_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 2 курс'!$A$1:$Q$56</definedName>
+    <definedName name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</definedName>
+    <definedName name="Z_4D72E795_06E1_4F2F_AE67_8CB53D497A64_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 2 курс'!$B$1:$R$60</definedName>
+    <definedName name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</definedName>
+    <definedName name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</definedName>
+    <definedName name="Z_8E80F33F_4DEB_4D53_BDE3_19A86710D048_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 2 курс'!$A$1:$R$56</definedName>
+    <definedName name="Z_942635EC_2318_4735_B8F6_FD021A5522DA_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 2 курс'!$A$1:$R$62</definedName>
+    <definedName name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 2 курс'!$A$1:$R$56</definedName>
+    <definedName name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 2 курс'!$A$1:$R$59</definedName>
+    <definedName name="Z_D77B7616_E978_4A64_87CF_8F3884212AC9_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 2 курс'!$A$1:$R$56</definedName>
+    <definedName name="Z_D948D77A_2149_4647_A897_E8978AA23AEB_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 2 курс'!$A$1:$R$56</definedName>
+    <definedName name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
+    <definedName name="Z_4D72E795_06E1_4F2F_AE67_8CB53D497A64_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$B$1:$Q$60</definedName>
+    <definedName name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
+    <definedName name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
+    <definedName name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
+    <definedName name="Z_8E80F33F_4DEB_4D53_BDE3_19A86710D048_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
+    <definedName name="Z_942635EC_2318_4735_B8F6_FD021A5522DA_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
+    <definedName name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
+    <definedName name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
+    <definedName name="Z_D77B7616_E978_4A64_87CF_8F3884212AC9_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
+    <definedName name="Z_D948D77A_2149_4647_A897_E8978AA23AEB_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ИЭиФ 2 курс '!$A$1:$Y$64</definedName>
+    <definedName name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 2 курс'!$A$1:$Q$58</definedName>
+    <definedName name="Z_4D72E795_06E1_4F2F_AE67_8CB53D497A64_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 2 курс'!$B$1:$P$60</definedName>
+    <definedName name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 2 курс'!$A$1:$Q$58</definedName>
+    <definedName name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 2 курс'!$A$1:$Q$58</definedName>
+    <definedName name="Z_8E80F33F_4DEB_4D53_BDE3_19A86710D048_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 2 курс'!$A$1:$Q$58</definedName>
+    <definedName name="Z_942635EC_2318_4735_B8F6_FD021A5522DA_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 2 курс'!$A$1:$Q$58</definedName>
+    <definedName name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 2 курс'!$A$1:$Q$58</definedName>
+    <definedName name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 2 курс'!$A$1:$P$57</definedName>
+    <definedName name="Z_D77B7616_E978_4A64_87CF_8F3884212AC9_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 2 курс'!$A$1:$Q$58</definedName>
+    <definedName name="Z_167B2FA6_680D_4C78_A44F_5AB83F1E2371_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_4D72E795_06E1_4F2F_AE67_8CB53D497A64_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_70DB2FA9_43EF_45F4_A37B_CA6A7FE41590_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_802177CC_F86B_4D46_B586_E0A6EE076BDC_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_8631711A_BD37_41AF_9ECA_8BB32FCA77C0_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_8E80F33F_4DEB_4D53_BDE3_19A86710D048_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_942635EC_2318_4735_B8F6_FD021A5522DA_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_BD2AA4DE_9B4C_40EC_B742_9D5E4F9572F8_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_C8FB494D_F0A9_4916_90C9_E2955F9D3B2F_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_D77B7616_E978_4A64_87CF_8F3884212AC9_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_D948D77A_2149_4647_A897_E8978AA23AEB_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3 курс'!$A$1:$Q$68</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
